--- a/biology/Zoologie/Alpiscorpius_phrygius/Alpiscorpius_phrygius.xlsx
+++ b/biology/Zoologie/Alpiscorpius_phrygius/Alpiscorpius_phrygius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alpiscorpius phrygius est une espèce de scorpions de la famille des Euscorpiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Turquie[1]. Elle se rencontre dans les provinces d'Ankara, de Bolu de Düzce, de Karabük et de Sakarya[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Turquie. Elle se rencontre dans les provinces d'Ankara, de Bolu de Düzce, de Karabük et de Sakarya.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Tropea, Yağmur et Fet en 2015 mesure 24,89 mm et la femelle 25,47 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Tropea, Yağmur et Fet en 2015 mesure 24,89 mm et la femelle 25,47 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Euscorpius mingrelicus phrygius par Alberto Bonacina (d) en 1980[3]. Elle est élevée au rang d'espèce par Tropea, Yağmur et Fet en 2015[2]. Elle est placée dans le genre Alpiscorpius par Kovařík, Štundlová, Fet et Šťáhlavský en 2019[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Euscorpius mingrelicus phrygius par Alberto Bonacina (d) en 1980. Elle est élevée au rang d'espèce par Tropea, Yağmur et Fet en 2015. Elle est placée dans le genre Alpiscorpius par Kovařík, Štundlová, Fet et Šťáhlavský en 2019.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, la Phrygie[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, la Phrygie.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(it) Alberto Bonacina, « Sistematica specifica e sottospecifica del complesso Euscorpius germanus (Scorpiones, Chactidae) », Rivista del Museo Civico di Scienze Naturali Enrico Caffi"", vol. 2,‎ 1980, p. 47-100 (ISSN 0393-8700, lire en ligne)</t>
         </is>
